--- a/Src/Results_insertion/output_insertion_high_[1, 0]_0.xlsx
+++ b/Src/Results_insertion/output_insertion_high_[1, 0]_0.xlsx
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.001933813095092773</v>
       </c>
     </row>
     <row r="5">
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.0006279945373535156</v>
       </c>
     </row>
     <row r="7">
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.0005905628204345703</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.009135246276855469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1118,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1588084697723389</v>
+        <v>0.149749755859375</v>
       </c>
     </row>
     <row r="15">
@@ -1165,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002007246017456055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1212,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002098560333251953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001008749008178711</v>
+        <v>0.006505727767944336</v>
       </c>
     </row>
     <row r="18">
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01562786102294922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.001549243927001953</v>
       </c>
     </row>
     <row r="23">
@@ -1541,7 +1541,7 @@
         <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002509117126464844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1588,7 +1588,7 @@
         <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.001001358032226562</v>
       </c>
     </row>
     <row r="25">
@@ -1635,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1145670413970947</v>
+        <v>0.1840081214904785</v>
       </c>
     </row>
     <row r="26">
@@ -1682,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1625595092773438</v>
+        <v>0.1237947940826416</v>
       </c>
     </row>
     <row r="27">
@@ -1729,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02848196029663086</v>
+        <v>0.01694273948669434</v>
       </c>
     </row>
     <row r="28">
@@ -1823,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="O29" t="n">
-        <v>0.007612705230712891</v>
+        <v>0.008513212203979492</v>
       </c>
     </row>
     <row r="30">
@@ -1917,7 +1917,7 @@
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>0.003009796142578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1964,7 +1964,7 @@
         <v>18</v>
       </c>
       <c r="O32" t="n">
-        <v>0.002885580062866211</v>
+        <v>0.001675844192504883</v>
       </c>
     </row>
     <row r="33">
@@ -2011,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="O33" t="n">
-        <v>0.002066612243652344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2058,7 +2058,7 @@
         <v>18</v>
       </c>
       <c r="O34" t="n">
-        <v>7.935041666030884</v>
+        <v>7.887200117111206</v>
       </c>
     </row>
     <row r="35">
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01572394371032715</v>
+        <v>0.01630020141601562</v>
       </c>
     </row>
     <row r="36">
@@ -2152,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>0.08757352828979492</v>
+        <v>0.09285497665405273</v>
       </c>
     </row>
     <row r="37">
@@ -2199,7 +2199,7 @@
         <v>21</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2238209247589111</v>
+        <v>0.2677047252655029</v>
       </c>
     </row>
     <row r="38">
@@ -2246,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="O38" t="n">
-        <v>0.00559687614440918</v>
+        <v>0.001001119613647461</v>
       </c>
     </row>
     <row r="39">
@@ -2293,7 +2293,7 @@
         <v>22</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>0.0009989738464355469</v>
       </c>
     </row>
     <row r="40">
@@ -2340,7 +2340,7 @@
         <v>21</v>
       </c>
       <c r="O40" t="n">
-        <v>0.05313944816589355</v>
+        <v>0.06852245330810547</v>
       </c>
     </row>
     <row r="41">
@@ -2434,7 +2434,7 @@
         <v>20</v>
       </c>
       <c r="O42" t="n">
-        <v>0.06615662574768066</v>
+        <v>0.0744326114654541</v>
       </c>
     </row>
     <row r="43">
@@ -2481,7 +2481,7 @@
         <v>21</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.002000808715820312</v>
       </c>
     </row>
     <row r="44">
@@ -2528,7 +2528,7 @@
         <v>21</v>
       </c>
       <c r="O44" t="n">
-        <v>0.09684157371520996</v>
+        <v>0.09596085548400879</v>
       </c>
     </row>
     <row r="45">
@@ -2622,7 +2622,7 @@
         <v>20</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0100100040435791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2669,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="O47" t="n">
-        <v>0.00278925895690918</v>
+        <v>0.007974863052368164</v>
       </c>
     </row>
     <row r="48">
@@ -2716,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="O48" t="n">
-        <v>0.06304597854614258</v>
+        <v>0.0776817798614502</v>
       </c>
     </row>
     <row r="49">
@@ -2763,7 +2763,7 @@
         <v>22</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>0.001585721969604492</v>
       </c>
     </row>
     <row r="50">
@@ -2857,7 +2857,7 @@
         <v>16</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>0.002999067306518555</v>
       </c>
     </row>
     <row r="52">
@@ -2904,7 +2904,7 @@
         <v>17</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.002012014389038086</v>
       </c>
     </row>
     <row r="53">
@@ -2951,7 +2951,7 @@
         <v>18</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
     </row>
     <row r="54">
@@ -2998,7 +2998,7 @@
         <v>17</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="55">
@@ -3045,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="O55" t="n">
-        <v>0.04023456573486328</v>
+        <v>0.04021143913269043</v>
       </c>
     </row>
     <row r="56">
@@ -3092,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>0.002002716064453125</v>
       </c>
     </row>
     <row r="57">
@@ -3139,7 +3139,7 @@
         <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>0.004666566848754883</v>
       </c>
     </row>
     <row r="58">
@@ -3186,7 +3186,7 @@
         <v>10</v>
       </c>
       <c r="O58" t="n">
-        <v>0.01394891738891602</v>
+        <v>0.002027034759521484</v>
       </c>
     </row>
     <row r="59">
@@ -3233,7 +3233,7 @@
         <v>10</v>
       </c>
       <c r="O59" t="n">
-        <v>0.001101493835449219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3280,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>0.002007246017456055</v>
       </c>
     </row>
     <row r="61">
@@ -3327,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>0.001001358032226562</v>
       </c>
     </row>
     <row r="62">
@@ -3374,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="O62" t="n">
-        <v>0.007512807846069336</v>
+        <v>0.01867985725402832</v>
       </c>
     </row>
     <row r="63">
@@ -3468,7 +3468,7 @@
         <v>14</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>0.001348972320556641</v>
       </c>
     </row>
     <row r="65">
@@ -3515,7 +3515,7 @@
         <v>9</v>
       </c>
       <c r="O65" t="n">
-        <v>0.07352447509765625</v>
+        <v>0.07170486450195312</v>
       </c>
     </row>
     <row r="66">
@@ -3562,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0160679817199707</v>
+        <v>0.01494503021240234</v>
       </c>
     </row>
     <row r="67">
@@ -3609,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>0.001005649566650391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>0.001005887985229492</v>
       </c>
     </row>
     <row r="69">
@@ -3703,7 +3703,7 @@
         <v>6</v>
       </c>
       <c r="O69" t="n">
-        <v>0.01683878898620605</v>
+        <v>0.008698225021362305</v>
       </c>
     </row>
     <row r="70">
@@ -3750,7 +3750,7 @@
         <v>6</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>0.001046180725097656</v>
       </c>
     </row>
     <row r="71">
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>0.03319048881530762</v>
+        <v>0.02065706253051758</v>
       </c>
     </row>
     <row r="72">
@@ -3844,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="O72" t="n">
-        <v>134.8124725818634</v>
+        <v>130.2574288845062</v>
       </c>
     </row>
     <row r="73">
@@ -3891,7 +3891,7 @@
         <v>7</v>
       </c>
       <c r="O73" t="n">
-        <v>0.01914310455322266</v>
+        <v>0.01621150970458984</v>
       </c>
     </row>
     <row r="74">
@@ -3985,7 +3985,7 @@
         <v>7</v>
       </c>
       <c r="O75" t="n">
-        <v>0.001006364822387695</v>
+        <v>0.001000404357910156</v>
       </c>
     </row>
     <row r="76">
@@ -4079,7 +4079,7 @@
         <v>9</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>0.002464771270751953</v>
       </c>
     </row>
     <row r="78">
@@ -4126,7 +4126,7 @@
         <v>9</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009601116180419922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4173,7 +4173,7 @@
         <v>10</v>
       </c>
       <c r="O79" t="n">
-        <v>0.00101161003112793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4220,7 +4220,7 @@
         <v>11</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>0.001611471176147461</v>
       </c>
     </row>
     <row r="81">
@@ -4267,7 +4267,7 @@
         <v>13</v>
       </c>
       <c r="O81" t="n">
-        <v>0.06662607192993164</v>
+        <v>0.05254340171813965</v>
       </c>
     </row>
     <row r="82">
@@ -4314,7 +4314,7 @@
         <v>13</v>
       </c>
       <c r="O82" t="n">
-        <v>0.003612518310546875</v>
+        <v>0.002088308334350586</v>
       </c>
     </row>
     <row r="83">
@@ -4361,7 +4361,7 @@
         <v>14</v>
       </c>
       <c r="O83" t="n">
-        <v>0.001989126205444336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4408,7 +4408,7 @@
         <v>16</v>
       </c>
       <c r="O84" t="n">
-        <v>0.004722118377685547</v>
+        <v>0.006002664566040039</v>
       </c>
     </row>
     <row r="85">
@@ -4455,7 +4455,7 @@
         <v>17</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>0.01372933387756348</v>
       </c>
     </row>
     <row r="86">
@@ -4502,7 +4502,7 @@
         <v>18</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>0.002716779708862305</v>
       </c>
     </row>
     <row r="87">
@@ -4549,7 +4549,7 @@
         <v>19</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>0.004767417907714844</v>
       </c>
     </row>
     <row r="88">
@@ -4596,7 +4596,7 @@
         <v>18</v>
       </c>
       <c r="O88" t="n">
-        <v>0.006105899810791016</v>
+        <v>0.001913785934448242</v>
       </c>
     </row>
     <row r="89">
@@ -4643,7 +4643,7 @@
         <v>19</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>0.002114534378051758</v>
       </c>
     </row>
     <row r="90">
@@ -4690,7 +4690,7 @@
         <v>18</v>
       </c>
       <c r="O90" t="n">
-        <v>0.1426765918731689</v>
+        <v>0.1540229320526123</v>
       </c>
     </row>
     <row r="91">
@@ -4784,7 +4784,7 @@
         <v>18</v>
       </c>
       <c r="O92" t="n">
-        <v>0.00950932502746582</v>
+        <v>0.003784656524658203</v>
       </c>
     </row>
     <row r="93">
@@ -4878,7 +4878,7 @@
         <v>18</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>0.001026153564453125</v>
       </c>
     </row>
     <row r="95">
@@ -4925,7 +4925,7 @@
         <v>19</v>
       </c>
       <c r="O95" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.001916170120239258</v>
       </c>
     </row>
     <row r="96">
@@ -4972,7 +4972,7 @@
         <v>21</v>
       </c>
       <c r="O96" t="n">
-        <v>0.1228001117706299</v>
+        <v>0.08431196212768555</v>
       </c>
     </row>
     <row r="97">
@@ -5019,7 +5019,7 @@
         <v>22</v>
       </c>
       <c r="O97" t="n">
-        <v>0.003249406814575195</v>
+        <v>0.002912282943725586</v>
       </c>
     </row>
     <row r="98">
@@ -5066,7 +5066,7 @@
         <v>23</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>0.001999616622924805</v>
       </c>
     </row>
     <row r="99">
@@ -5113,7 +5113,7 @@
         <v>23</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>0.001999616622924805</v>
       </c>
     </row>
     <row r="100">
@@ -5160,7 +5160,7 @@
         <v>23</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0665886402130127</v>
+        <v>0.07430744171142578</v>
       </c>
     </row>
     <row r="101">
@@ -5254,7 +5254,7 @@
         <v>25</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>0.001999616622924805</v>
       </c>
     </row>
     <row r="103">
@@ -5301,7 +5301,7 @@
         <v>21</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03171300888061523</v>
+        <v>0.03700923919677734</v>
       </c>
     </row>
     <row r="104">
@@ -5348,7 +5348,7 @@
         <v>21</v>
       </c>
       <c r="O104" t="n">
-        <v>3.710009336471558</v>
+        <v>4.572839736938477</v>
       </c>
     </row>
     <row r="105">
@@ -5395,7 +5395,7 @@
         <v>19</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03101658821105957</v>
+        <v>0.03751778602600098</v>
       </c>
     </row>
     <row r="106">
@@ -5442,7 +5442,7 @@
         <v>19</v>
       </c>
       <c r="O106" t="n">
-        <v>0.05450820922851562</v>
+        <v>0.07468533515930176</v>
       </c>
     </row>
     <row r="107">
@@ -5489,7 +5489,7 @@
         <v>19</v>
       </c>
       <c r="O107" t="n">
-        <v>0.04934191703796387</v>
+        <v>0.05855035781860352</v>
       </c>
     </row>
     <row r="108">
@@ -5536,7 +5536,7 @@
         <v>20</v>
       </c>
       <c r="O108" t="n">
-        <v>0.004004478454589844</v>
+        <v>0.007000446319580078</v>
       </c>
     </row>
     <row r="109">
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>0.002020597457885742</v>
       </c>
     </row>
     <row r="110">
@@ -5630,7 +5630,7 @@
         <v>17</v>
       </c>
       <c r="O110" t="n">
-        <v>0.04549694061279297</v>
+        <v>0.06022143363952637</v>
       </c>
     </row>
     <row r="111">
@@ -5677,7 +5677,7 @@
         <v>14</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>0.002999067306518555</v>
       </c>
     </row>
     <row r="112">
@@ -5724,7 +5724,7 @@
         <v>14</v>
       </c>
       <c r="O112" t="n">
-        <v>0.01314496994018555</v>
+        <v>0.02746891975402832</v>
       </c>
     </row>
     <row r="113">
@@ -5771,7 +5771,7 @@
         <v>14</v>
       </c>
       <c r="O113" t="n">
-        <v>0.02703309059143066</v>
+        <v>0.03130412101745605</v>
       </c>
     </row>
     <row r="114">
@@ -5818,7 +5818,7 @@
         <v>14</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03359198570251465</v>
+        <v>0.01950812339782715</v>
       </c>
     </row>
     <row r="115">
@@ -5865,7 +5865,7 @@
         <v>14</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>0.01691293716430664</v>
       </c>
     </row>
     <row r="116">
@@ -5912,7 +5912,7 @@
         <v>9</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03140878677368164</v>
+        <v>0.02046847343444824</v>
       </c>
     </row>
     <row r="117">
@@ -5959,7 +5959,7 @@
         <v>9</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0006885528564453125</v>
+        <v>0.01300621032714844</v>
       </c>
     </row>
     <row r="118">
@@ -6006,7 +6006,7 @@
         <v>7</v>
       </c>
       <c r="O118" t="n">
-        <v>0.004006147384643555</v>
+        <v>0.00571441650390625</v>
       </c>
     </row>
     <row r="119">
@@ -6053,7 +6053,7 @@
         <v>8</v>
       </c>
       <c r="O119" t="n">
-        <v>0.01513409614562988</v>
+        <v>0.001009941101074219</v>
       </c>
     </row>
     <row r="120">
@@ -6100,7 +6100,7 @@
         <v>8</v>
       </c>
       <c r="O120" t="n">
-        <v>0</v>
+        <v>0.002621173858642578</v>
       </c>
     </row>
     <row r="121">
@@ -6147,7 +6147,7 @@
         <v>9</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>0.00109100341796875</v>
       </c>
     </row>
     <row r="122">
@@ -6194,7 +6194,7 @@
         <v>10</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>0.002629995346069336</v>
       </c>
     </row>
     <row r="123">
@@ -6241,7 +6241,7 @@
         <v>5</v>
       </c>
       <c r="O123" t="n">
-        <v>0.001000404357910156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -6288,7 +6288,7 @@
         <v>6</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>0.001965045928955078</v>
       </c>
     </row>
     <row r="125">
@@ -6335,7 +6335,7 @@
         <v>7</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>0.001003742218017578</v>
       </c>
     </row>
     <row r="126">
@@ -6382,7 +6382,7 @@
         <v>8</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>0.0009987354278564453</v>
       </c>
     </row>
     <row r="127">
@@ -6429,7 +6429,7 @@
         <v>9</v>
       </c>
       <c r="O127" t="n">
-        <v>0.01151156425476074</v>
+        <v>0.001024246215820312</v>
       </c>
     </row>
     <row r="128">
@@ -6476,7 +6476,7 @@
         <v>9</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>0.001600980758666992</v>
       </c>
     </row>
     <row r="129">
@@ -6523,7 +6523,7 @@
         <v>10</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>0.001001834869384766</v>
       </c>
     </row>
     <row r="130">
@@ -6570,7 +6570,7 @@
         <v>7</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>0.0009977817535400391</v>
       </c>
     </row>
     <row r="131">
@@ -6617,7 +6617,7 @@
         <v>8</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>0.001990795135498047</v>
       </c>
     </row>
     <row r="132">
@@ -6664,7 +6664,7 @@
         <v>9</v>
       </c>
       <c r="O132" t="n">
-        <v>0.000629425048828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -6805,7 +6805,7 @@
         <v>9</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>0.001412391662597656</v>
       </c>
     </row>
     <row r="136">
@@ -6852,7 +6852,7 @@
         <v>10</v>
       </c>
       <c r="O136" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.00101161003112793</v>
       </c>
     </row>
     <row r="137">
@@ -6993,7 +6993,7 @@
         <v>8</v>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>0.002086400985717773</v>
       </c>
     </row>
     <row r="140">
@@ -7040,7 +7040,7 @@
         <v>8</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>0.003625392913818359</v>
       </c>
     </row>
     <row r="141">
@@ -7087,7 +7087,7 @@
         <v>9</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>0.002510547637939453</v>
       </c>
     </row>
     <row r="142">
@@ -7134,7 +7134,7 @@
         <v>9</v>
       </c>
       <c r="O142" t="n">
-        <v>0.009113788604736328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -7181,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>0.006009578704833984</v>
       </c>
     </row>
     <row r="144">
@@ -7322,7 +7322,7 @@
         <v>8</v>
       </c>
       <c r="O146" t="n">
-        <v>0.009603977203369141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -7416,7 +7416,7 @@
         <v>8</v>
       </c>
       <c r="O148" t="n">
-        <v>0.002000331878662109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -7510,7 +7510,7 @@
         <v>8</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1964552402496338</v>
+        <v>0.2442600727081299</v>
       </c>
     </row>
     <row r="151">
@@ -7557,7 +7557,7 @@
         <v>7</v>
       </c>
       <c r="O151" t="n">
-        <v>0.01010513305664062</v>
+        <v>0.002309083938598633</v>
       </c>
     </row>
     <row r="152">
@@ -7651,7 +7651,7 @@
         <v>7</v>
       </c>
       <c r="O153" t="n">
-        <v>0.00098419189453125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -7745,7 +7745,7 @@
         <v>8</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>0.01589012145996094</v>
       </c>
     </row>
     <row r="156">
@@ -8027,7 +8027,7 @@
         <v>6</v>
       </c>
       <c r="O161" t="n">
-        <v>0.002012729644775391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -8215,7 +8215,7 @@
         <v>10</v>
       </c>
       <c r="O165" t="n">
-        <v>0.001041650772094727</v>
+        <v>0.01001429557800293</v>
       </c>
     </row>
     <row r="166">
@@ -8309,7 +8309,7 @@
         <v>11</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>0.003986597061157227</v>
       </c>
     </row>
     <row r="168">
@@ -8356,7 +8356,7 @@
         <v>10</v>
       </c>
       <c r="O168" t="n">
-        <v>0.006132841110229492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -8403,7 +8403,7 @@
         <v>10</v>
       </c>
       <c r="O169" t="n">
-        <v>0</v>
+        <v>0.001318454742431641</v>
       </c>
     </row>
     <row r="170">
@@ -8450,7 +8450,7 @@
         <v>11</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -8544,7 +8544,7 @@
         <v>9</v>
       </c>
       <c r="O172" t="n">
-        <v>0.019775390625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -8685,7 +8685,7 @@
         <v>3</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>0.005607843399047852</v>
       </c>
     </row>
     <row r="176">
